--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4026.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4026.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.802671971653696</v>
+        <v>4.542630672454834</v>
       </c>
       <c r="B1">
-        <v>2.481238012692469</v>
+        <v>5.143352508544922</v>
       </c>
       <c r="C1">
-        <v>2.723868373720801</v>
+        <v>8.193857192993164</v>
       </c>
       <c r="D1">
-        <v>3.205628261335276</v>
+        <v>7.643161296844482</v>
       </c>
       <c r="E1">
-        <v>2.306845735072156</v>
+        <v>3.78064227104187</v>
       </c>
     </row>
   </sheetData>
